--- a/data/validatedInd2ICD/cancer/Cortellis_Drug_Indication_ICD9_Crosswalk_Cancer_ben.xlsx
+++ b/data/validatedInd2ICD/cancer/Cortellis_Drug_Indication_ICD9_Crosswalk_Cancer_ben.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Cortellis_Drug_Indication_ICD9_" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="414">
   <si>
     <t>cortellis_condition</t>
   </si>
@@ -1261,6 +1261,9 @@
   </si>
   <si>
     <t>No appropriate ICD-9</t>
+  </si>
+  <si>
+    <t>V42</t>
   </si>
 </sst>
 </file>
@@ -1760,7 +1763,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1770,8 +1773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A149" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D170" sqref="D170"/>
+    <sheetView tabSelected="1" topLeftCell="A140" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A155" sqref="A155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.25" customHeight="1"/>
@@ -7211,8 +7214,8 @@
       <c r="C154">
         <v>998</v>
       </c>
-      <c r="D154" s="17">
-        <v>996</v>
+      <c r="D154" s="17" t="s">
+        <v>413</v>
       </c>
       <c r="E154">
         <v>0</v>
